--- a/CAMUNDA-FRONT-END.xlsx
+++ b/CAMUNDA-FRONT-END.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -112,9 +112,6 @@
     <t>Servicio</t>
   </si>
   <si>
-    <t>pinstansdetails</t>
-  </si>
-  <si>
     <t>taskform</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>OPERACIÓN</t>
+  </si>
+  <si>
+    <t>pinstanscreate</t>
   </si>
 </sst>
 </file>
@@ -379,44 +379,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,11 +412,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -760,350 +763,351 @@
   <dimension ref="B4:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:J4"/>
+      <selection activeCell="D25" sqref="D25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="9"/>
-    <col min="2" max="2" width="43.140625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20" style="9" customWidth="1"/>
-    <col min="6" max="6" width="39.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="2" max="2" width="43.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="20" style="5" customWidth="1"/>
+    <col min="6" max="6" width="39.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33" t="s">
+      <c r="F4" s="23"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="20" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="11" t="str">
+        <f t="shared" ref="F21:F26" si="0">CONCATENATE(C21,".html")</f>
+        <v>login.html</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f t="shared" ref="G21:G26" si="1">CONCATENATE(C21,"Controller.js")</f>
+        <v>loginController.js</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f t="shared" ref="H21:H26" si="2">CONCATENATE(C21,"Service.js")</f>
+        <v>loginService.js</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>main.html</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>mainController.js</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>mainService.js</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>pinstanslist.html</v>
+      </c>
+      <c r="G23" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>pinstanslistController.js</v>
+      </c>
+      <c r="H23" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>pinstanslistService.js</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="5" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="C18" s="12"/>
-    </row>
-    <row r="20" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="D24" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="28"/>
+      <c r="F24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>pinstanscreate.html</v>
+      </c>
+      <c r="G24" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>pinstanscreateController.js</v>
+      </c>
+      <c r="H24" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>pinstanscreateService.js</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="F25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>tasklist.html</v>
+      </c>
+      <c r="G25" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>tasklistController.js</v>
+      </c>
+      <c r="H25" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>tasklistService.js</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>taskform.html</v>
+      </c>
+      <c r="G26" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>taskformController.js</v>
+      </c>
+      <c r="H26" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>taskformService.js</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="17" t="str">
-        <f>CONCATENATE(C21,".html")</f>
-        <v>login.html</v>
-      </c>
-      <c r="G21" s="17" t="str">
-        <f>CONCATENATE(C21,"Controller.js")</f>
-        <v>loginController.js</v>
-      </c>
-      <c r="H21" s="17" t="str">
-        <f>CONCATENATE(C21,"Service.js")</f>
-        <v>loginService.js</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17" t="str">
-        <f>CONCATENATE(C22,".html")</f>
-        <v>main.html</v>
-      </c>
-      <c r="G22" s="17" t="str">
-        <f>CONCATENATE(C22,"Controller.js")</f>
-        <v>mainController.js</v>
-      </c>
-      <c r="H22" s="17" t="str">
-        <f>CONCATENATE(C22,"Service.js")</f>
-        <v>mainService.js</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19" t="str">
-        <f>CONCATENATE(C23,".html")</f>
-        <v>pinstanslist.html</v>
-      </c>
-      <c r="G23" s="19" t="str">
-        <f>CONCATENATE(C23,"Controller.js")</f>
-        <v>pinstanslistController.js</v>
-      </c>
-      <c r="H23" s="19" t="str">
-        <f>CONCATENATE(C23,"Service.js")</f>
-        <v>pinstanslistService.js</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="19" t="str">
-        <f>CONCATENATE(C24,".html")</f>
-        <v>pinstansdetails.html</v>
-      </c>
-      <c r="G24" s="19" t="str">
-        <f>CONCATENATE(C24,"Controller.js")</f>
-        <v>pinstansdetailsController.js</v>
-      </c>
-      <c r="H24" s="19" t="str">
-        <f>CONCATENATE(C24,"Service.js")</f>
-        <v>pinstansdetailsService.js</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19" t="str">
-        <f>CONCATENATE(C25,".html")</f>
-        <v>tasklist.html</v>
-      </c>
-      <c r="G25" s="19" t="str">
-        <f>CONCATENATE(C25,"Controller.js")</f>
-        <v>tasklistController.js</v>
-      </c>
-      <c r="H25" s="19" t="str">
-        <f>CONCATENATE(C25,"Service.js")</f>
-        <v>tasklistService.js</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="19" t="str">
-        <f>CONCATENATE(C26,".html")</f>
-        <v>taskform.html</v>
-      </c>
-      <c r="G26" s="19" t="str">
-        <f>CONCATENATE(C26,"Controller.js")</f>
-        <v>taskformController.js</v>
-      </c>
-      <c r="H26" s="19" t="str">
-        <f>CONCATENATE(C26,"Service.js")</f>
-        <v>taskformService.js</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="23"/>
-      <c r="C28" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="23" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="15" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="25" t="str">
+      <c r="E29" s="19"/>
+      <c r="F29" s="17" t="str">
         <f>CONCATENATE(C29,".html")</f>
         <v>Messages.html</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B9:D9"/>
@@ -1119,13 +1123,12 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1142,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="31.28515625" style="8"/>
+    <col min="1" max="16384" width="31.28515625" style="4"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1162,10 +1165,10 @@
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1179,10 +1182,10 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="1" t="str">
         <f>CONCATENATE(C6,".html")</f>
         <v>ptarea1.html</v>
@@ -1197,10 +1200,10 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="1"/>
       <c r="G7"/>
     </row>
@@ -1212,10 +1215,10 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="1"/>
       <c r="G8"/>
     </row>
@@ -1227,10 +1230,10 @@
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="1" t="str">
         <f>CONCATENATE(C9,".html")</f>
         <v>ptarea4.html</v>
@@ -1245,10 +1248,10 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="1"/>
       <c r="G10"/>
     </row>
@@ -1260,10 +1263,10 @@
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="1"/>
       <c r="G11"/>
     </row>
@@ -1275,10 +1278,10 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="1" t="str">
         <f>CONCATENATE(C12,".html")</f>
         <v>subp_1_tarea1.html</v>
@@ -1293,10 +1296,10 @@
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="1" t="str">
         <f>CONCATENATE(C13,".html")</f>
         <v>subp_2_tarea1.html</v>
@@ -1314,15 +1317,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
